--- a/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/CreditCards-Only.xlsx
+++ b/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/CreditCards-Only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\GitHub\Projects\Microsoft\Purview\Purview-Retail-Data-Protection-Masterclass\02-Data-Foundation\data-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF1F1FB-F47C-43F9-AAEB-FE8469DFB9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7169F4-DC5D-4F2E-8C40-5EECA5283106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0419C186-736C-4131-9203-77BB94759EAB}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{09D5DC1D-ED39-4D54-B379-7F28A988E9DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Cards" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Customer ID</t>
   </si>
@@ -59,169 +59,175 @@
     <t>C001</t>
   </si>
   <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>6011-3336-6513-2206</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>lauren.smith@contoso.com</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>3747-147727-40130</t>
+  </si>
+  <si>
+    <t>Amex</t>
+  </si>
+  <si>
+    <t>robert.rodriguez@contoso.com</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>3705-465003-28226</t>
+  </si>
+  <si>
+    <t>lauren.smith@gmail.com</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
     <t>Amanda</t>
   </si>
   <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>3741-518555-51587</t>
-  </si>
-  <si>
-    <t>Amex</t>
-  </si>
-  <si>
-    <t>amanda.rodriguez@contoso.com</t>
-  </si>
-  <si>
-    <t>C002</t>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>5124-4082-4524-2787</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>amanda.wilson@contoso.com</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>4844-4614-3142-2578</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>jessica.moore@contoso.com</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>5203-4474-0703-1417</t>
+  </si>
+  <si>
+    <t>lauren.davis@hotmail.com</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>3704-733025-40805</t>
+  </si>
+  <si>
+    <t>emily.davis@contoso.com</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>4565-4310-5433-1647</t>
+  </si>
+  <si>
+    <t>jennifer.gonzalez@contoso.com</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>6011-7227-1566-3009</t>
+  </si>
+  <si>
+    <t>michael.taylor@icloud.com</t>
+  </si>
+  <si>
+    <t>C010</t>
   </si>
   <si>
     <t>Michelle</t>
   </si>
   <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>3725-824664-40625</t>
-  </si>
-  <si>
-    <t>michelle.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>4584-5320-7551-7567</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>daniel.williams@hotmail.com</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>4447-2526-8473-3660</t>
-  </si>
-  <si>
-    <t>william.wilson@contoso.com</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>3767-155075-40644</t>
-  </si>
-  <si>
-    <t>william.taylor@contoso.com</t>
-  </si>
-  <si>
-    <t>C006</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>6011-5486-4855-4006</t>
-  </si>
-  <si>
-    <t>Discover</t>
-  </si>
-  <si>
-    <t>jennifer.martin@hotmail.com</t>
-  </si>
-  <si>
-    <t>C007</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>6011-6765-7417-6033</t>
-  </si>
-  <si>
-    <t>michael.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>C008</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>6011-7271-5825-0319</t>
-  </si>
-  <si>
-    <t>lisa.wilson@contoso.com</t>
-  </si>
-  <si>
-    <t>C009</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>5355-3856-0175-4617</t>
-  </si>
-  <si>
-    <t>Mastercard</t>
-  </si>
-  <si>
-    <t>amanda.martinez@hotmail.com</t>
-  </si>
-  <si>
-    <t>C010</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>4560-7188-7887-5717</t>
-  </si>
-  <si>
-    <t>ashley.williams@contoso.com</t>
+    <t>5237-0072-8150-0588</t>
+  </si>
+  <si>
+    <t>michelle.taylor@contoso.com</t>
   </si>
   <si>
     <t>C011</t>
   </si>
   <si>
-    <t>3735-250045-58032</t>
-  </si>
-  <si>
-    <t>william.martin@contoso.com</t>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>4271-0271-1283-3614</t>
+  </si>
+  <si>
+    <t>sarah.wilson@contoso.com</t>
   </si>
   <si>
     <t>C012</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>5115-5527-3742-1252</t>
-  </si>
-  <si>
-    <t>john.martin@hotmail.com</t>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>6011-8345-0214-0321</t>
+  </si>
+  <si>
+    <t>james.garcia@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B800DD1-86D2-4C8D-B610-076368863399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEC0ED3-0E89-4929-8B2B-ED7E7DD4A4E0}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -619,7 +625,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,58 +682,58 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -736,18 +742,18 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -756,47 +762,47 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -807,16 +813,16 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -830,13 +836,13 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -847,39 +853,39 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
